--- a/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151109</v>
+        <v>151114</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482222453</v>
+        <v>482250128</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409038</v>
+        <v>409043</v>
       </c>
       <c r="D92" t="n">
         <v>70904</v>
       </c>
       <c r="E92" t="n">
-        <v>1593888615</v>
+        <v>1593918662</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209521</v>
+        <v>209529</v>
       </c>
       <c r="D93" t="n">
-        <v>34260</v>
+        <v>34261</v>
       </c>
       <c r="E93" t="n">
-        <v>1308077748</v>
+        <v>1308143776</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94167</v>
+        <v>94174</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>916682998</v>
+        <v>916746241</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50734</v>
+        <v>50737</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>931021751</v>
+        <v>931249783</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17249</v>
+        <v>17250</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>789741036</v>
+        <v>789924340</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135230</v>
+        <v>135231</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272149771</v>
+        <v>272154522</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9102060</v>
+        <v>9102747</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D118" t="n">
         <v>161</v>
       </c>
       <c r="E118" t="n">
-        <v>11793478</v>
+        <v>11823184</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>75581</v>
+        <v>75582</v>
       </c>
       <c r="D131" t="n">
         <v>15099</v>
       </c>
       <c r="E131" t="n">
-        <v>307211165</v>
+        <v>307221165</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
